--- a/Test Data/TC_149_Verify_Battery_Standby_And_Alarm_Load_On_Addition_Deletion_Of_Accessories.xlsx
+++ b/Test Data/TC_149_Verify_Battery_Standby_And_Alarm_Load_On_Addition_Deletion_Of_Accessories.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbhasip\Desktop\NGConsys Automation_01_02_2019\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5449F99-1334-40FD-AB24-B0003CAEA3F5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="5604"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Panels" sheetId="6" r:id="rId1"/>
@@ -138,7 +139,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -553,11 +554,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -706,10 +707,10 @@
         <v>14</v>
       </c>
       <c r="F8" s="15">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="G8" s="15">
-        <v>0.33600000000000002</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>33</v>
@@ -742,7 +743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Test Data/TC_149_Verify_Battery_Standby_And_Alarm_Load_On_Addition_Deletion_Of_Accessories.xlsx
+++ b/Test Data/TC_149_Verify_Battery_Standby_And_Alarm_Load_On_Addition_Deletion_Of_Accessories.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5449F99-1334-40FD-AB24-B0003CAEA3F5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Add Panels" sheetId="6" r:id="rId1"/>
@@ -139,7 +138,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -554,11 +553,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -743,7 +742,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Test Data/TC_149_Verify_Battery_Standby_And_Alarm_Load_On_Addition_Deletion_Of_Accessories.xlsx
+++ b/Test Data/TC_149_Verify_Battery_Standby_And_Alarm_Load_On_Addition_Deletion_Of_Accessories.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
   <si>
     <t>Color Codes</t>
   </si>
@@ -133,6 +133,18 @@
   </si>
   <si>
     <t>Printer 2</t>
+  </si>
+  <si>
+    <t>AlarmLoadingDetail</t>
+  </si>
+  <si>
+    <t>StandbyLoadingDetail</t>
+  </si>
+  <si>
+    <t>Battery Alarm (A)</t>
+  </si>
+  <si>
+    <t>Battery Standby (A)</t>
   </si>
 </sst>
 </file>
@@ -556,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7:O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -688,6 +700,12 @@
       <c r="M7" s="11" t="s">
         <v>28</v>
       </c>
+      <c r="N7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
@@ -725,6 +743,12 @@
       </c>
       <c r="M8" s="10">
         <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="Q8" s="16"/>
       <c r="R8" s="16"/>

--- a/Test Data/TC_149_Verify_Battery_Standby_And_Alarm_Load_On_Addition_Deletion_Of_Accessories.xlsx
+++ b/Test Data/TC_149_Verify_Battery_Standby_And_Alarm_Load_On_Addition_Deletion_Of_Accessories.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\consys-uiauto\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -141,10 +141,10 @@
     <t>StandbyLoadingDetail</t>
   </si>
   <si>
-    <t>Battery Alarm (A)</t>
-  </si>
-  <si>
-    <t>Battery Standby (A)</t>
+    <t>Alarm Current(A)</t>
+  </si>
+  <si>
+    <t>Standby Current(A)</t>
   </si>
 </sst>
 </file>
@@ -569,7 +569,7 @@
   <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7:O8"/>
+      <selection activeCell="N8" sqref="N8:O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Test Data/TC_149_Verify_Battery_Standby_And_Alarm_Load_On_Addition_Deletion_Of_Accessories.xlsx
+++ b/Test Data/TC_149_Verify_Battery_Standby_And_Alarm_Load_On_Addition_Deletion_Of_Accessories.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2ECA7D2-4149-4E11-911B-95F841D320E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Panels" sheetId="6" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>Color Codes</t>
   </si>
@@ -126,9 +127,6 @@
     <t>Accessories</t>
   </si>
   <si>
-    <t>PRN800</t>
-  </si>
-  <si>
     <t>Printers</t>
   </si>
   <si>
@@ -145,12 +143,27 @@
   </si>
   <si>
     <t>Standby Current(A)</t>
+  </si>
+  <si>
+    <t>0.300</t>
+  </si>
+  <si>
+    <t>RS800</t>
+  </si>
+  <si>
+    <t>0.008</t>
+  </si>
+  <si>
+    <t>0.612</t>
+  </si>
+  <si>
+    <t>NGC-488/T396 OR TC-149</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -275,9 +288,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -286,6 +296,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,11 +578,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8:O8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -590,12 +603,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
@@ -607,10 +620,10 @@
       <c r="B2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="18"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
@@ -634,7 +647,9 @@
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="C4" s="5"/>
       <c r="D4" s="8" t="s">
         <v>6</v>
@@ -654,14 +669,14 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
@@ -701,10 +716,10 @@
         <v>28</v>
       </c>
       <c r="N7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O7" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
@@ -714,8 +729,8 @@
       <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>23</v>
+      <c r="C8" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>14</v>
@@ -723,35 +738,35 @@
       <c r="E8" s="6">
         <v>14</v>
       </c>
-      <c r="F8" s="15">
-        <v>0.3</v>
-      </c>
-      <c r="G8" s="15">
-        <v>0.61199999999999999</v>
+      <c r="F8" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>42</v>
       </c>
       <c r="I8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="K8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="L8" s="10">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="M8" s="10">
-        <v>5.1999999999999998E-2</v>
+        <v>1E-3</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="N8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="O8" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -766,7 +781,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
